--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_EQ组.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="86">
   <si>
     <t>No</t>
   </si>
@@ -304,6 +304,18 @@
   </si>
   <si>
     <t>免测，前端代码自测保证</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>品牌房源库底部分页样式问题修复</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>renterpc</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>王龙国</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -1467,7 +1479,7 @@
   <dimension ref="A1:W169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1476,7 +1488,7 @@
     <col min="2" max="3" width="9.875" style="32" customWidth="1"/>
     <col min="4" max="4" width="41.75" style="33" customWidth="1"/>
     <col min="5" max="5" width="15" style="32" customWidth="1"/>
-    <col min="6" max="6" width="18.125" style="32" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="32" customWidth="1"/>
     <col min="7" max="7" width="9.625" style="32" customWidth="1"/>
     <col min="8" max="8" width="12.125" style="33" customWidth="1"/>
     <col min="9" max="9" width="9.625" style="32" customWidth="1"/>
@@ -1608,7 +1620,9 @@
       <c r="P2" s="80"/>
       <c r="Q2" s="47"/>
       <c r="R2" s="77"/>
-      <c r="S2" s="82"/>
+      <c r="S2" s="82">
+        <v>7620</v>
+      </c>
       <c r="T2" s="82"/>
       <c r="U2" s="83"/>
       <c r="V2" s="53" t="s">
@@ -1617,19 +1631,43 @@
       <c r="W2" s="84"/>
     </row>
     <row r="3" spans="1:23" s="31" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
+      <c r="A3" s="36">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="80">
+        <v>42751</v>
+      </c>
+      <c r="I3" s="80" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="80">
+        <v>42751</v>
+      </c>
       <c r="K3" s="38"/>
-      <c r="L3" s="47"/>
-      <c r="M3" s="38"/>
+      <c r="L3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3" s="38" t="s">
+        <v>70</v>
+      </c>
       <c r="N3" s="38"/>
       <c r="O3" s="47"/>
       <c r="P3" s="39"/>
@@ -5504,7 +5542,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O1:O1048576">
       <formula1>"通过,不通过"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 I1:I1048576 U1:U1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G1:G1048576 U1:U1048576 I1:I1048576">
       <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">

--- a/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.7 170117/版本Bug和特性计划及评审表v5.2.7_EQ组.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="27975" windowHeight="10920"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.7 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87">
   <si>
     <t>No</t>
   </si>
@@ -121,6 +121,12 @@
     <t>EQ组</t>
   </si>
   <si>
+    <t>免测</t>
+  </si>
+  <si>
+    <t>能</t>
+  </si>
+  <si>
     <t>免测，前端代码自测保证</t>
   </si>
   <si>
@@ -134,9 +140,6 @@
   </si>
   <si>
     <t>通过</t>
-  </si>
-  <si>
-    <t>能</t>
   </si>
   <si>
     <t>上线版本</t>
@@ -296,11 +299,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -393,28 +396,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,42 +486,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +509,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -567,19 +557,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="63"/>
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,12 +607,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -655,12 +632,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,6 +679,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -727,12 +716,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -774,19 +757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor indexed="22"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +997,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1049,26 +1040,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1077,29 +1048,29 @@
     <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="25" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1108,148 +1079,148 @@
     <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="1">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1509,7 +1480,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="10" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="10" xfId="60" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="60" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="60" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1946,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:W169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2083,10 +2054,14 @@
       <c r="M2" s="72" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="72"/>
+      <c r="N2" s="72" t="s">
+        <v>30</v>
+      </c>
       <c r="O2" s="72"/>
       <c r="P2" s="63"/>
-      <c r="Q2" s="72"/>
+      <c r="Q2" s="72" t="s">
+        <v>31</v>
+      </c>
       <c r="R2" s="78"/>
       <c r="S2" s="79">
         <v>7620</v>
@@ -2094,7 +2069,7 @@
       <c r="T2" s="79"/>
       <c r="U2" s="80"/>
       <c r="V2" s="61" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" s="81"/>
     </row>
@@ -2109,7 +2084,7 @@
         <v>23</v>
       </c>
       <c r="D3" s="64" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E3" s="62" t="s">
         <v>25</v>
@@ -2131,22 +2106,22 @@
       </c>
       <c r="K3" s="62"/>
       <c r="L3" s="72" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M3" s="62" t="s">
         <v>29</v>
       </c>
       <c r="N3" s="62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="72" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" s="63">
         <v>42751</v>
       </c>
       <c r="Q3" s="72" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="R3" s="69"/>
       <c r="S3" s="69">
@@ -6016,23 +5991,23 @@
     </row>
   </sheetData>
   <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
+      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"重要,不重要"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 U$1:U$1048576">
+      <formula1>"是,否"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>"紧急,不紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
-      <formula1>"Fix Bugs,New Features"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q$1:Q$1048576">
       <formula1>"能,否"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G$1:G$1048576 I$1:I$1048576 U$1:U$1048576">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M$1:M$1048576">
-      <formula1>"架构组,EQ组,捷豹组,马丁组,磐石组,极光组,移动组,野帝组"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
+      <formula1>"Fix Bugs,New Features"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O$1:O$1048576">
       <formula1>"通过,不通过"</formula1>
@@ -6075,55 +6050,55 @@
   <sheetData>
     <row r="1" ht="36" customHeight="1" spans="1:18">
       <c r="A1" s="39" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="M1" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="E1" s="40" t="s">
-        <v>40</v>
-      </c>
-      <c r="F1" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="G1" s="40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" s="40" t="s">
-        <v>44</v>
-      </c>
-      <c r="J1" s="40" t="s">
-        <v>45</v>
-      </c>
-      <c r="K1" s="47" t="s">
-        <v>46</v>
-      </c>
-      <c r="L1" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="M1" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="N1" s="40" t="s">
-        <v>37</v>
-      </c>
       <c r="O1" s="40" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P1" s="40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q1" s="40" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R1" s="40" t="s">
         <v>21</v>
@@ -6218,7 +6193,7 @@
   <sheetData>
     <row r="1" ht="20.25" spans="1:11">
       <c r="A1" s="22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -6233,34 +6208,34 @@
     </row>
     <row r="2" ht="17.25" spans="1:11">
       <c r="A2" s="24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J2" s="24" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K2" s="25" t="s">
         <v>21</v>
@@ -6422,7 +6397,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6454,40 +6429,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>21</v>
@@ -6693,14 +6668,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -6737,7 +6712,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -6769,40 +6744,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>21</v>
@@ -7008,14 +6983,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -7052,7 +7027,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7084,40 +7059,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>21</v>
@@ -7323,14 +7298,14 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
+      <formula1>"新增,修改,删除"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
       <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4:F16">
-      <formula1>"新增,修改,删除"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I9:I16">
       <formula1>"开发环境、测试环境、生产环境"</formula1>
@@ -7369,7 +7344,7 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8"/>
@@ -7401,40 +7376,40 @@
     </row>
     <row r="3" ht="16.5" spans="1:13">
       <c r="A3" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M3" s="20" t="s">
         <v>21</v>
@@ -7640,11 +7615,11 @@
     <mergeCell ref="A1:M2"/>
   </mergeCells>
   <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
+      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F4 F5 F6:F16">
       <formula1>"新增,修改,删除"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I7">
-      <formula1>"生产环境,测试环境,开发环境,预发布环境,公测环境"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I8 I4:I6">
       <formula1>"生产环境,测试环境,开发环境"</formula1>
@@ -7680,28 +7655,28 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" spans="1:8">
@@ -7709,13 +7684,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>27</v>
@@ -7724,10 +7699,10 @@
         <v>42752</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:8">
